--- a/storage/attendance/attendance_sheet1.xlsx
+++ b/storage/attendance/attendance_sheet1.xlsx
@@ -1,25 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manjari\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820"/>
+    <workbookView windowWidth="20475" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -35,6 +25,9 @@
     <t>date</t>
   </si>
   <si>
+    <t>days</t>
+  </si>
+  <si>
     <t>in_time</t>
   </si>
   <si>
@@ -50,6 +43,12 @@
     <t>status</t>
   </si>
   <si>
+    <t>BACHTIAR</t>
+  </si>
+  <si>
+    <t>FE001</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -60,46 +59,374 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>DIPI0011</t>
-  </si>
-  <si>
-    <t>HIMANI SHARMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -107,27 +434,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -176,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,26 +822,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -261,23 +857,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,35 +998,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="3" max="3" width="11.4285714285714" style="1"/>
+    <col min="4" max="4" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,54 +1034,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>42975</v>
+        <v>44542</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="F2" s="3">
         <v>0.75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/storage/attendance/attendance_sheet1.xlsx
+++ b/storage/attendance/attendance_sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -40,10 +40,7 @@
     <t>over_time</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>BACHTIAR</t>
+    <t>Bachtiar Fatur Rohim</t>
   </si>
   <si>
     <t>FE001</t>
@@ -52,27 +49,70 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>8:30 hrs</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Dicky Saputra</t>
+  </si>
+  <si>
+    <t>DCK001</t>
+  </si>
+  <si>
+    <t>Andi Gusta</t>
+  </si>
+  <si>
+    <t>AND001</t>
+  </si>
+  <si>
+    <t>Tama</t>
+  </si>
+  <si>
+    <t>TM001</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>OWN001</t>
+  </si>
+  <si>
+    <t>Biko</t>
+  </si>
+  <si>
+    <t>BKO001</t>
+  </si>
+  <si>
+    <t>Leo Dandy</t>
+  </si>
+  <si>
+    <t>LEO001</t>
+  </si>
+  <si>
+    <t>Muhammad Rizky</t>
+  </si>
+  <si>
+    <t>RZK001</t>
+  </si>
+  <si>
+    <t>HR Admin</t>
+  </si>
+  <si>
+    <t>HR0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +124,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,21 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,32 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,45 +221,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,181 +280,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +465,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +502,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -464,36 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +557,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -535,156 +568,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,26 +1037,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G2" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="27.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="11.4285714285714" style="1"/>
     <col min="4" max="4" width="9.14285714285714" style="1"/>
-    <col min="5" max="5" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1428571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.5714285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7142857142857" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.4285714285714" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,10 +1070,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1048,37 +1082,248 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44556</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G10" si="0">TEXT(F2-E2,"h:mm")</f>
+        <v>7:30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E3" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
         <v>44542</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8:00</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.395833333333333</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="F5" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:30</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8:00</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8:00</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44542</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44556</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>8:00</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/storage/attendance/attendance_sheet1.xlsx
+++ b/storage/attendance/attendance_sheet1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -37,19 +37,19 @@
     <t>hours_worked</t>
   </si>
   <si>
-    <t>over_time</t>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>HR0001</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>Bachtiar Fatur Rohim</t>
   </si>
   <si>
-    <t>FE001</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>BFR001</t>
   </si>
   <si>
     <t>Dicky Saputra</t>
@@ -67,7 +67,7 @@
     <t>Tama</t>
   </si>
   <si>
-    <t>TM001</t>
+    <t>TMA001</t>
   </si>
   <si>
     <t>Owen</t>
@@ -82,22 +82,88 @@
     <t>BKO001</t>
   </si>
   <si>
-    <t>Leo Dandy</t>
+    <t>Rizki</t>
+  </si>
+  <si>
+    <t>RZK001</t>
+  </si>
+  <si>
+    <t>Anggit</t>
+  </si>
+  <si>
+    <t>ANG001</t>
+  </si>
+  <si>
+    <t>Leo</t>
   </si>
   <si>
     <t>LEO001</t>
   </si>
   <si>
-    <t>Muhammad Rizky</t>
-  </si>
-  <si>
-    <t>RZK001</t>
-  </si>
-  <si>
-    <t>HR Admin</t>
-  </si>
-  <si>
-    <t>HR0001</t>
+    <t>Riris Ayu</t>
+  </si>
+  <si>
+    <t>RRS001</t>
+  </si>
+  <si>
+    <t>Ummi</t>
+  </si>
+  <si>
+    <t>UMI001</t>
+  </si>
+  <si>
+    <t>Agyl</t>
+  </si>
+  <si>
+    <t>AGL001</t>
+  </si>
+  <si>
+    <t>Arief</t>
+  </si>
+  <si>
+    <t>ARF001</t>
+  </si>
+  <si>
+    <t>Ghulam</t>
+  </si>
+  <si>
+    <t>GLM001</t>
+  </si>
+  <si>
+    <t>Deden</t>
+  </si>
+  <si>
+    <t>DDN001</t>
+  </si>
+  <si>
+    <t>Herjun</t>
+  </si>
+  <si>
+    <t>HRJ001</t>
+  </si>
+  <si>
+    <t>Nanda</t>
+  </si>
+  <si>
+    <t>NND001</t>
+  </si>
+  <si>
+    <t>Monic</t>
+  </si>
+  <si>
+    <t>MNC001</t>
+  </si>
+  <si>
+    <t>Yvon</t>
+  </si>
+  <si>
+    <t>YVN001</t>
+  </si>
+  <si>
+    <t>Zia</t>
+  </si>
+  <si>
+    <t>ZIA001</t>
   </si>
 </sst>
 </file>
@@ -105,11 +171,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -122,14 +188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +210,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -159,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -167,13 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -189,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -205,13 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -220,13 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -243,6 +316,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,20 +330,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +531,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,15 +563,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,15 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,155 +634,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,13 +1103,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.14285714285714" style="1"/>
@@ -1057,7 +1123,7 @@
     <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,49 +1145,43 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="3">
-        <v>44556</v>
+        <v>44592</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.000694444444444444</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>TEXT(F2-E2,"h:mm")</f>
+        <v>0:00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G2" s="1" t="str">
-        <f t="shared" ref="G2:G10" si="0">TEXT(F2-E2,"h:mm")</f>
-        <v>7:30</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="3">
-        <v>44542</v>
+        <v>44592</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>0.416666666666667</v>
@@ -1130,200 +1190,464 @@
         <v>0.708333333333333</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>7:00</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <f>TEXT(F3-E3,"h:mm")</f>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.458333333333334</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" ref="G4:G22" si="0">TEXT(F4-E4,"h:mm")</f>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>8:00</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.791666666666666</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>7:30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>7:00</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.583333333333334</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>8:00</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.916666666666666</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>8:00</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
-        <v>44542</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>7:30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.708333333333334</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3">
-        <v>44556</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>8:00</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
+      <c r="C11" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.833333333333334</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.20833333333333</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.958333333333334</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.29166666666667</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.33333333333333</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.08333333333333</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.375</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.41666666666667</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.16666666666667</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.45833333333333</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44592</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.20833333333333</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>7:00</v>
       </c>
     </row>
   </sheetData>
